--- a/JavaMavenTestNG/Data1.xlsx
+++ b/JavaMavenTestNG/Data1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvenkatarajan\GIT2\Destination-Dir\PVautomation-offers\pv-loan-calculator-test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvenkatarajan\GIT2\PVautomation02\JavaMavenTestNG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08095E33-7656-4168-BA5B-463C85933975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97201C30-4ABB-4018-A0BE-55A83041FD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="903" xr2:uid="{F5736B96-9307-49F6-B898-6DCEF23721A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="903" activeTab="6" xr2:uid="{F5736B96-9307-49F6-B898-6DCEF23721A7}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="20" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Sheet1" sheetId="21" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="22" r:id="rId5"/>
     <sheet name="Sheet3" sheetId="23" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="24" r:id="rId7"/>
+    <sheet name="Sheet5" sheetId="25" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="326">
   <si>
     <t>zipcode</t>
   </si>
@@ -970,6 +972,54 @@
   </si>
   <si>
     <t>pvTestq0001@yopmail.com</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>fico score</t>
+  </si>
+  <si>
+    <t>$2001-$3000</t>
+  </si>
+  <si>
+    <t>36 months</t>
+  </si>
+  <si>
+    <t>500-599 (Fair)</t>
+  </si>
+  <si>
+    <t>600-699 (Good)</t>
+  </si>
+  <si>
+    <t>700+ (Great)</t>
+  </si>
+  <si>
+    <t>$3001-$4000</t>
+  </si>
+  <si>
+    <t>$4001-$5000</t>
+  </si>
+  <si>
+    <t>$5001-$6000</t>
+  </si>
+  <si>
+    <t>$6001-$7000</t>
+  </si>
+  <si>
+    <t>$7001-$8000</t>
+  </si>
+  <si>
+    <t>$8001-$9000</t>
+  </si>
+  <si>
+    <t>$9001-$10000</t>
+  </si>
+  <si>
+    <t>30 months</t>
+  </si>
+  <si>
+    <t>24 months</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1129,6 +1179,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1446,7 +1497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841833B0-55FF-4C53-AA8E-EB1E77B95ECA}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -9638,4 +9689,272 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A582445F-441F-47BA-BCC0-D22AE280FA54}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
+        <v>29621</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>35071</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>38930</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>70816</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>30076</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>38305</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>42001</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>63011</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>75287</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>27612</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>47731</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>85296</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>53219</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>23224</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>32309</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>43103</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A303883-6744-47CD-AF8C-B8CE1EDACFBB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/JavaMavenTestNG/Data1.xlsx
+++ b/JavaMavenTestNG/Data1.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvenkatarajan\GIT2\PVautomation02\JavaMavenTestNG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97201C30-4ABB-4018-A0BE-55A83041FD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BE0309-B22E-45DD-B8A2-B8E311228DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="903" activeTab="6" xr2:uid="{F5736B96-9307-49F6-B898-6DCEF23721A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="903" xr2:uid="{F5736B96-9307-49F6-B898-6DCEF23721A7}"/>
   </bookViews>
   <sheets>
-    <sheet name="C" sheetId="20" r:id="rId1"/>
+    <sheet name="OfferTest" sheetId="20" r:id="rId1"/>
     <sheet name="C-ori" sheetId="13" r:id="rId2"/>
     <sheet name="zipcodes" sheetId="18" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="21" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="22" r:id="rId5"/>
     <sheet name="Sheet3" sheetId="23" r:id="rId6"/>
-    <sheet name="Sheet4" sheetId="24" r:id="rId7"/>
-    <sheet name="Sheet5" sheetId="25" r:id="rId8"/>
+    <sheet name="LoanCalculator" sheetId="24" r:id="rId7"/>
+    <sheet name="BranchUpdateTestAPIResponse" sheetId="25" r:id="rId8"/>
+    <sheet name="Sheet4" sheetId="26" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="331">
   <si>
     <t>zipcode</t>
   </si>
@@ -971,9 +972,6 @@
     <t>pvTestqqa0a12@yopmail.com</t>
   </si>
   <si>
-    <t>pvTestq0001@yopmail.com</t>
-  </si>
-  <si>
     <t>term</t>
   </si>
   <si>
@@ -1020,6 +1018,24 @@
   </si>
   <si>
     <t>24 months</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>(512) 501-0369</t>
+  </si>
+  <si>
+    <t>pvTest.sms.1825a2@yopmail.com</t>
+  </si>
+  <si>
+    <t>pvTest.sms.1825a3@yopmail.com</t>
+  </si>
+  <si>
+    <t>pvTest.sms.1825a4@yopmail.com</t>
+  </si>
+  <si>
+    <t>pvTest.sms.11225001@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1046,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="000\-00\-0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1065,8 +1081,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1097,8 +1119,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1106,12 +1134,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1180,6 +1223,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1497,8 +1543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841833B0-55FF-4C53-AA8E-EB1E77B95ECA}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1574,19 +1620,19 @@
         <v>297</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G2" s="14">
         <v>666021386</v>
       </c>
       <c r="H2" s="18">
-        <v>36475</v>
+        <v>36478</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>84</v>
+        <v>326</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>18</v>
@@ -1607,9 +1653,9 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" display="preethapv01+05689@gmail.com" xr:uid="{A309E132-FAB5-4FE7-B756-1B3314D143D2}"/>
-    <hyperlink ref="K2" r:id="rId2" display="preethapv01+05689@gmail.com" xr:uid="{5D02F9AF-DC90-4861-BCA7-B727BD92E2AA}"/>
-    <hyperlink ref="I2" r:id="rId3" xr:uid="{2C69B68B-4271-45BF-98FE-159A7B5D9A3B}"/>
+    <hyperlink ref="L2" r:id="rId1" display="preethapv01+05689@gmail.com" xr:uid="{E72563B2-BE7B-4814-A307-8D2F25A297E8}"/>
+    <hyperlink ref="K2" r:id="rId2" display="preethapv01+05689@gmail.com" xr:uid="{634ABC01-BED8-4F76-A389-66866C45780A}"/>
+    <hyperlink ref="I2" r:id="rId3" xr:uid="{6FAA58D7-46A9-4848-ABF1-0EE9F62672D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -1618,10 +1664,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A2469F-3977-43FB-B67B-ED749E458C8A}">
-  <dimension ref="A1:AZ157"/>
+  <dimension ref="A1:AZ161"/>
   <sheetViews>
     <sheetView topLeftCell="A136" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="A151" sqref="A151:XFD152"/>
+      <selection activeCell="A159" sqref="A159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7895,6 +7941,147 @@
         <v>20000</v>
       </c>
       <c r="O157" s="12">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="11">
+        <v>32309</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="E159" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="F159" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G159" s="14">
+        <v>666018968</v>
+      </c>
+      <c r="H159" s="18">
+        <v>36479</v>
+      </c>
+      <c r="I159" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="J159" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="K159" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L159" s="11">
+        <v>0</v>
+      </c>
+      <c r="M159" s="12">
+        <v>500</v>
+      </c>
+      <c r="N159" s="12">
+        <v>20000</v>
+      </c>
+      <c r="O159" s="12">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="11">
+        <v>43103</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C160" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="E160" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="F160" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G160" s="14">
+        <v>666002672</v>
+      </c>
+      <c r="H160" s="18">
+        <v>36478</v>
+      </c>
+      <c r="I160" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="J160" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="K160" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L160" s="11">
+        <v>0</v>
+      </c>
+      <c r="M160" s="12">
+        <v>500</v>
+      </c>
+      <c r="N160" s="12">
+        <v>20000</v>
+      </c>
+      <c r="O160" s="12">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="11">
+        <v>35071</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D161" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="E161" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="F161" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G161" s="14">
+        <v>666000002</v>
+      </c>
+      <c r="H161" s="18">
+        <v>36478</v>
+      </c>
+      <c r="I161" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="J161" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="K161" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L161" s="11">
+        <v>0</v>
+      </c>
+      <c r="M161" s="12">
+        <v>500</v>
+      </c>
+      <c r="N161" s="12">
+        <v>20000</v>
+      </c>
+      <c r="O161" s="12">
         <v>19000</v>
       </c>
     </row>
@@ -8331,9 +8518,19 @@
     <hyperlink ref="I155" r:id="rId428" xr:uid="{8B6D11FF-CBCF-41AD-9955-74BEF6FEF3E4}"/>
     <hyperlink ref="I156" r:id="rId429" xr:uid="{4D5CC331-3F54-4059-8D41-0F60D50BECFB}"/>
     <hyperlink ref="I157" r:id="rId430" xr:uid="{A559D19F-E1F8-4CA2-8F2C-C400C1BE7FD0}"/>
+    <hyperlink ref="L160" r:id="rId431" display="preethapv01+05689@gmail.com" xr:uid="{1CF123EA-1E98-4B9C-B99B-8D7705057974}"/>
+    <hyperlink ref="K160" r:id="rId432" display="preethapv01+05689@gmail.com" xr:uid="{D9EF7C19-7F7D-407B-98E6-A36C72D7913E}"/>
+    <hyperlink ref="L159" r:id="rId433" display="preethapv01+05689@gmail.com" xr:uid="{D56C58DD-B2B3-4BAA-B360-911199ECEA8E}"/>
+    <hyperlink ref="K159" r:id="rId434" display="preethapv01+05689@gmail.com" xr:uid="{58C39BC4-7650-452F-8393-D08BC0E5CDEA}"/>
+    <hyperlink ref="L161" r:id="rId435" display="preethapv01+05689@gmail.com" xr:uid="{104A57EB-CE33-4E05-88C1-36B2B6B6A904}"/>
+    <hyperlink ref="K161" r:id="rId436" display="preethapv01+05689@gmail.com" xr:uid="{9663B9DF-3308-48DD-A761-A48AF849F2AF}"/>
+    <hyperlink ref="I159:I161" r:id="rId437" display="pvTest.sms.1825a1@yopmail.com" xr:uid="{725A2D68-27DB-4789-AF86-12BC9581664C}"/>
+    <hyperlink ref="I159" r:id="rId438" xr:uid="{D02D2D09-0EFB-458F-8356-03B158A3B95C}"/>
+    <hyperlink ref="I160" r:id="rId439" xr:uid="{59C50711-110D-4C04-919E-0D83DF607618}"/>
+    <hyperlink ref="I161" r:id="rId440" xr:uid="{263DE828-4CF7-448E-BB99-33CE1C0A6102}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId431"/>
+  <pageSetup orientation="portrait" r:id="rId441"/>
 </worksheet>
 </file>
 
@@ -9695,7 +9892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A582445F-441F-47BA-BCC0-D22AE280FA54}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -9709,10 +9906,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>310</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -9720,13 +9917,13 @@
         <v>29621</v>
       </c>
       <c r="B2" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="D2" s="27" t="s">
         <v>313</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -9734,13 +9931,13 @@
         <v>35071</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -9748,13 +9945,13 @@
         <v>38930</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -9762,13 +9959,13 @@
         <v>70816</v>
       </c>
       <c r="B5" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>313</v>
-      </c>
       <c r="D5" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -9776,13 +9973,13 @@
         <v>30076</v>
       </c>
       <c r="B6" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>313</v>
-      </c>
       <c r="D6" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -9790,13 +9987,13 @@
         <v>38305</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -9804,13 +10001,13 @@
         <v>42001</v>
       </c>
       <c r="B8" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="C8" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>313</v>
-      </c>
       <c r="D8" s="27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -9818,13 +10015,13 @@
         <v>63011</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -9832,13 +10029,13 @@
         <v>75287</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -9846,13 +10043,13 @@
         <v>27612</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -9860,13 +10057,13 @@
         <v>47731</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -9874,13 +10071,13 @@
         <v>85296</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9888,13 +10085,13 @@
         <v>53219</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -9902,13 +10099,13 @@
         <v>23224</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -9916,13 +10113,13 @@
         <v>32309</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C16" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="D16" s="27" t="s">
         <v>313</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -9930,13 +10127,13 @@
         <v>43103</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -9947,14 +10144,167 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A303883-6744-47CD-AF8C-B8CE1EDACFBB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D7"/>
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" style="1"/>
+    <col min="3" max="16384" width="20.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28">
+        <v>38850</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28">
+        <v>38851</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28">
+        <v>38875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="28">
+        <v>38877</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="28">
+        <v>39741</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="28">
+        <v>39751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="28">
+        <v>39754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="28">
+        <v>39755</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="28">
+        <v>39756</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="28">
+        <v>39776</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="28">
+        <v>39753</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="28">
+        <v>39773</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3F25C5-0AFA-404A-9C82-9922FE74707A}">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="28">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="28">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="28">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="28">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="28">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="28">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="28">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="28">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="28">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/JavaMavenTestNG/Data1.xlsx
+++ b/JavaMavenTestNG/Data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvenkatarajan\GIT2\PVautomation02\JavaMavenTestNG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BE0309-B22E-45DD-B8A2-B8E311228DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710AE89C-BAC8-490B-BF81-98FE95F24A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="903" xr2:uid="{F5736B96-9307-49F6-B898-6DCEF23721A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="903" activeTab="6" xr2:uid="{F5736B96-9307-49F6-B898-6DCEF23721A7}"/>
   </bookViews>
   <sheets>
     <sheet name="OfferTest" sheetId="20" r:id="rId1"/>
@@ -1543,7 +1543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841833B0-55FF-4C53-AA8E-EB1E77B95ECA}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -9892,8 +9892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A582445F-441F-47BA-BCC0-D22AE280FA54}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9973,13 +9973,13 @@
         <v>30076</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">

--- a/JavaMavenTestNG/Data1.xlsx
+++ b/JavaMavenTestNG/Data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvenkatarajan\GIT2\PVautomation02\JavaMavenTestNG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710AE89C-BAC8-490B-BF81-98FE95F24A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36F0CBB-9ED4-414C-9027-145323F89A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="903" activeTab="6" xr2:uid="{F5736B96-9307-49F6-B898-6DCEF23721A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="903" xr2:uid="{F5736B96-9307-49F6-B898-6DCEF23721A7}"/>
   </bookViews>
   <sheets>
     <sheet name="OfferTest" sheetId="20" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="334">
   <si>
     <t>zipcode</t>
   </si>
@@ -1035,7 +1035,16 @@
     <t>pvTest.sms.1825a4@yopmail.com</t>
   </si>
   <si>
-    <t>pvTest.sms.11225001@yopmail.com</t>
+    <t>pvtest.22525online1@yopmail.com</t>
+  </si>
+  <si>
+    <t>HSPOL</t>
+  </si>
+  <si>
+    <t>NWFCNNZZ</t>
+  </si>
+  <si>
+    <t>pvtest227ab2@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1097,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1125,8 +1134,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1149,12 +1170,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1226,6 +1256,11 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1543,13 +1578,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841833B0-55FF-4C53-AA8E-EB1E77B95ECA}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="8.88671875" style="11"/>
+    <col min="1" max="4" width="8.88671875" style="11"/>
+    <col min="5" max="5" width="13.6640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="11"/>
     <col min="7" max="7" width="14.6640625" style="17" customWidth="1"/>
     <col min="8" max="8" width="16.109375" style="18" customWidth="1"/>
     <col min="9" max="9" width="26.33203125" style="11" customWidth="1"/>
@@ -1604,35 +1641,35 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
-        <v>23224</v>
+      <c r="A2" s="1">
+        <v>29621</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>291</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>297</v>
+      <c r="D2" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>332</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="14">
-        <v>666021386</v>
+      <c r="G2" s="31">
+        <v>666014586</v>
       </c>
       <c r="H2" s="18">
         <v>36478</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>330</v>
+      <c r="I2" s="29" t="s">
+        <v>333</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>326</v>
+        <v>84</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>18</v>
@@ -1653,9 +1690,9 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" display="preethapv01+05689@gmail.com" xr:uid="{E72563B2-BE7B-4814-A307-8D2F25A297E8}"/>
-    <hyperlink ref="K2" r:id="rId2" display="preethapv01+05689@gmail.com" xr:uid="{634ABC01-BED8-4F76-A389-66866C45780A}"/>
-    <hyperlink ref="I2" r:id="rId3" xr:uid="{6FAA58D7-46A9-4848-ABF1-0EE9F62672D9}"/>
+    <hyperlink ref="L2" r:id="rId1" display="preethapv01+05689@gmail.com" xr:uid="{BC7FF2E6-BDA5-467C-BAB1-E453F266153E}"/>
+    <hyperlink ref="K2" r:id="rId2" display="preethapv01+05689@gmail.com" xr:uid="{8C64634B-FB15-4F62-AE75-F39FA035F960}"/>
+    <hyperlink ref="I2" r:id="rId3" xr:uid="{E0DF5797-4781-43FB-BA54-8CE4B279A06A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -1664,10 +1701,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A2469F-3977-43FB-B67B-ED749E458C8A}">
-  <dimension ref="A1:AZ161"/>
+  <dimension ref="A1:AZ164"/>
   <sheetViews>
     <sheetView topLeftCell="A136" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="A159" sqref="A159"/>
+      <selection activeCell="A152" sqref="A152:B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8082,6 +8119,53 @@
         <v>20000</v>
       </c>
       <c r="O161" s="12">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="24">
+        <v>38305</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="E164" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="F164" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G164" s="30">
+        <v>666021108</v>
+      </c>
+      <c r="H164" s="18">
+        <v>36478</v>
+      </c>
+      <c r="I164" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="J164" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K164" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L164" s="11">
+        <v>0</v>
+      </c>
+      <c r="M164" s="12">
+        <v>500</v>
+      </c>
+      <c r="N164" s="12">
+        <v>20000</v>
+      </c>
+      <c r="O164" s="12">
         <v>19000</v>
       </c>
     </row>
@@ -8528,9 +8612,12 @@
     <hyperlink ref="I159" r:id="rId438" xr:uid="{D02D2D09-0EFB-458F-8356-03B158A3B95C}"/>
     <hyperlink ref="I160" r:id="rId439" xr:uid="{59C50711-110D-4C04-919E-0D83DF607618}"/>
     <hyperlink ref="I161" r:id="rId440" xr:uid="{263DE828-4CF7-448E-BB99-33CE1C0A6102}"/>
+    <hyperlink ref="L164" r:id="rId441" display="preethapv01+05689@gmail.com" xr:uid="{E72563B2-BE7B-4814-A307-8D2F25A297E8}"/>
+    <hyperlink ref="K164" r:id="rId442" display="preethapv01+05689@gmail.com" xr:uid="{634ABC01-BED8-4F76-A389-66866C45780A}"/>
+    <hyperlink ref="I164" r:id="rId443" xr:uid="{84E3BFB1-CE3B-4DBE-A067-1D4E0D99AD19}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId441"/>
+  <pageSetup orientation="portrait" r:id="rId444"/>
 </worksheet>
 </file>
 
@@ -9892,7 +9979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A582445F-441F-47BA-BCC0-D22AE280FA54}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
